--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14527.81986744614</v>
+        <v>-17188.25861264524</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11190823.99609508</v>
+        <v>11190823.99609509</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>303.8192248820564</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>233.1737721307698</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554016</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,7 +753,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664409</v>
       </c>
       <c r="I3" t="n">
         <v>45.44580843958667</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>39.06688986841758</v>
       </c>
       <c r="W4" t="n">
-        <v>227.8092162726868</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.9669990978608</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>109.8423140196632</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.28440518723245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>135.4123988674922</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>142.2223965072216</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.2397255529495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>246.9791469873457</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.704661281745</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444708</v>
+        <v>96.40754664444705</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237113003</v>
+        <v>32.97111237112995</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020535</v>
+        <v>141.2421419020534</v>
       </c>
       <c r="T9" t="n">
         <v>193.5589894182124</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.6170176401751</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901465</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>45.76634877904996</v>
       </c>
       <c r="T10" t="n">
         <v>222.0750257228877</v>
       </c>
       <c r="U10" t="n">
-        <v>212.3054407551888</v>
+        <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298892</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615212</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>97.08417965161973</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530791</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5089280640916</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.8133067990524</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.3686930909076</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>211.1474991249032</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>21.90286287505402</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.3722917337063</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833873</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>201.0757400165029</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141634</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4121185570319</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.724785941013</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>220.9731342426601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>93.62264337260652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.8899482514157</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>136.5667167289871</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573441</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>75.12653431054498</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701343</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833762</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>164.93672337014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1053.72015839819</v>
+        <v>1503.933381384882</v>
       </c>
       <c r="C2" t="n">
-        <v>684.7576414577779</v>
+        <v>1134.97086444447</v>
       </c>
       <c r="D2" t="n">
-        <v>684.7576414577779</v>
+        <v>776.7051658377195</v>
       </c>
       <c r="E2" t="n">
-        <v>684.7576414577779</v>
+        <v>390.9169132394753</v>
       </c>
       <c r="F2" t="n">
-        <v>677.8121407085745</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G2" t="n">
         <v>370.9240347671034</v>
@@ -4334,19 +4334,19 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L2" t="n">
-        <v>295.8269799488417</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M2" t="n">
-        <v>927.5447909321535</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N2" t="n">
-        <v>1554.852458992</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O2" t="n">
-        <v>2102.013663759078</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4355,25 +4355,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U2" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V2" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W2" t="n">
-        <v>1813.785756723391</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="X2" t="n">
-        <v>1440.319998462311</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.319998462311</v>
+        <v>1890.533221449003</v>
       </c>
     </row>
     <row r="3">
@@ -4392,13 +4392,13 @@
         <v>642.735165023841</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183855</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452705</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044924</v>
       </c>
       <c r="H3" t="n">
         <v>98.60577654929637</v>
@@ -4410,22 +4410,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K3" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L3" t="n">
-        <v>591.7266525668463</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M3" t="n">
-        <v>1232.272002033951</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686616</v>
+        <v>1836.821331225751</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439339</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.0954458859852</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C4" t="n">
-        <v>387.0954458859852</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D4" t="n">
-        <v>387.0954458859852</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E4" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F4" t="n">
-        <v>239.1823523035921</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G4" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H4" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961286</v>
@@ -4510,28 +4510,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S4" t="n">
-        <v>845.195316251363</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T4" t="n">
-        <v>845.195316251363</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U4" t="n">
-        <v>845.195316251363</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="V4" t="n">
-        <v>845.195316251363</v>
+        <v>449.6266533655371</v>
       </c>
       <c r="W4" t="n">
-        <v>615.0849967840026</v>
+        <v>449.6266533655371</v>
       </c>
       <c r="X4" t="n">
-        <v>387.0954458859852</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y4" t="n">
-        <v>387.0954458859852</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1663.691546318101</v>
+        <v>860.13444418932</v>
       </c>
       <c r="C5" t="n">
-        <v>1294.72902937769</v>
+        <v>860.13444418932</v>
       </c>
       <c r="D5" t="n">
-        <v>936.4633307709394</v>
+        <v>501.8687455825695</v>
       </c>
       <c r="E5" t="n">
-        <v>936.4633307709394</v>
+        <v>501.8687455825695</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>494.923244833366</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>481.8758671101975</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961286</v>
+        <v>163.652751882707</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961286</v>
@@ -4574,13 +4574,13 @@
         <v>784.1365874146478</v>
       </c>
       <c r="M5" t="n">
-        <v>1163.078276489642</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>2043.162066457806</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866448</v>
+        <v>2213.331091774766</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.291386382223</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.291386382223</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.291386382223</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="Y5" t="n">
-        <v>2050.291386382223</v>
+        <v>1246.734284253442</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>528.1332110007643</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>1168.678560467869</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N6" t="n">
-        <v>1820.852439770578</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439339</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.7725994049153</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C7" t="n">
-        <v>177.2125941652866</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961286</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>714.7173549707657</v>
+        <v>915.8554001227029</v>
       </c>
       <c r="T7" t="n">
-        <v>714.7173549707657</v>
+        <v>915.8554001227029</v>
       </c>
       <c r="U7" t="n">
-        <v>425.5651785484454</v>
+        <v>915.8554001227029</v>
       </c>
       <c r="V7" t="n">
-        <v>425.5651785484454</v>
+        <v>661.1709119168161</v>
       </c>
       <c r="W7" t="n">
-        <v>425.5651785484454</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="X7" t="n">
-        <v>425.5651785484454</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.7725994049153</v>
+        <v>371.7537418798555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1409.537826483193</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="C8" t="n">
-        <v>1409.537826483193</v>
+        <v>1469.578020524412</v>
       </c>
       <c r="D8" t="n">
-        <v>1265.878840112262</v>
+        <v>1111.312321917662</v>
       </c>
       <c r="E8" t="n">
-        <v>880.0905875140179</v>
+        <v>725.5240693194175</v>
       </c>
       <c r="F8" t="n">
-        <v>469.1046827244103</v>
+        <v>718.5785685702141</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961286</v>
+        <v>302.1748053854166</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961286</v>
@@ -4802,28 +4802,28 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>130.8350924684846</v>
+        <v>187.8507871011547</v>
       </c>
       <c r="K8" t="n">
-        <v>619.5804401854197</v>
+        <v>355.6921763726373</v>
       </c>
       <c r="L8" t="n">
-        <v>1208.835526512172</v>
+        <v>1007.866055675346</v>
       </c>
       <c r="M8" t="n">
-        <v>1513.252473830236</v>
+        <v>1312.283002993411</v>
       </c>
       <c r="N8" t="n">
-        <v>1827.209013992859</v>
+        <v>1626.239543156035</v>
       </c>
       <c r="O8" t="n">
-        <v>2110.334010861644</v>
+        <v>2278.413422458744</v>
       </c>
       <c r="P8" t="n">
-        <v>2317.473644501891</v>
+        <v>2485.553056098992</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2592.933547824438</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
@@ -4838,16 +4838,16 @@
         <v>2169.603424808395</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.603424808395</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.603424808395</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.137666547315</v>
+        <v>1838.540537464824</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.137666547315</v>
+        <v>1838.540537464824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,58 +4857,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.6213010538164</v>
+        <v>949.6213010538162</v>
       </c>
       <c r="C9" t="n">
-        <v>775.1682717726894</v>
+        <v>775.1682717726892</v>
       </c>
       <c r="D9" t="n">
-        <v>626.2338621114382</v>
+        <v>626.2338621114379</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059826</v>
+        <v>466.9964071059825</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328675</v>
+        <v>320.4618491328674</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3864336967615</v>
+        <v>183.3864336967613</v>
       </c>
       <c r="H9" t="n">
-        <v>86.00507344984521</v>
+        <v>86.00507344984513</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>80.41925070638507</v>
+        <v>205.24937569339</v>
       </c>
       <c r="K9" t="n">
-        <v>467.7697029486082</v>
+        <v>592.5998279356136</v>
       </c>
       <c r="L9" t="n">
-        <v>1050.014584289919</v>
+        <v>807.7127674265</v>
       </c>
       <c r="M9" t="n">
-        <v>1320.398106626179</v>
+        <v>1459.886646729209</v>
       </c>
       <c r="N9" t="n">
-        <v>1972.571985928888</v>
+        <v>1751.835061266177</v>
       </c>
       <c r="O9" t="n">
-        <v>2343.425564033146</v>
+        <v>2028.147423079607</v>
       </c>
       <c r="P9" t="n">
         <v>2520.610998471805</v>
       </c>
       <c r="Q9" t="n">
-        <v>2589.135572646088</v>
+        <v>2589.135572646087</v>
       </c>
       <c r="R9" t="n">
-        <v>2589.135572646088</v>
+        <v>2589.135572646087</v>
       </c>
       <c r="S9" t="n">
-        <v>2446.466742441994</v>
+        <v>2446.466742441993</v>
       </c>
       <c r="T9" t="n">
         <v>2250.952611716526</v>
@@ -4917,7 +4917,7 @@
         <v>2022.837902004315</v>
       </c>
       <c r="V9" t="n">
-        <v>1787.685793772573</v>
+        <v>1787.685793772572</v>
       </c>
       <c r="W9" t="n">
         <v>1533.448437044371</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.8347403833942</v>
+        <v>371.1175767703073</v>
       </c>
       <c r="C10" t="n">
-        <v>315.8985574554873</v>
+        <v>371.1175767703073</v>
       </c>
       <c r="D10" t="n">
-        <v>315.8985574554873</v>
+        <v>221.0009373579716</v>
       </c>
       <c r="E10" t="n">
-        <v>167.9854638730941</v>
+        <v>221.0009373579716</v>
       </c>
       <c r="F10" t="n">
-        <v>167.9854638730941</v>
+        <v>221.0009373579716</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9854638730941</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>167.9854638730941</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193398</v>
+        <v>56.44303377193413</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012948</v>
+        <v>192.4293137012952</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763044</v>
+        <v>421.9713681763051</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438106</v>
+        <v>674.3804035438116</v>
       </c>
       <c r="N10" t="n">
-        <v>926.2223326340645</v>
+        <v>926.2223326340657</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431831</v>
+        <v>1142.822820431832</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.641274404486</v>
+        <v>1304.641274404488</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069304</v>
+        <v>1333.240904069306</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069304</v>
+        <v>1333.240904069306</v>
       </c>
       <c r="S10" t="n">
-        <v>1333.240904069304</v>
+        <v>1287.012268938953</v>
       </c>
       <c r="T10" t="n">
-        <v>1108.922696268408</v>
+        <v>1062.694061138056</v>
       </c>
       <c r="U10" t="n">
-        <v>894.4727561116513</v>
+        <v>773.5586207440772</v>
       </c>
       <c r="V10" t="n">
-        <v>894.4727561116513</v>
+        <v>773.5586207440772</v>
       </c>
       <c r="W10" t="n">
-        <v>894.4727561116513</v>
+        <v>773.5586207440772</v>
       </c>
       <c r="X10" t="n">
-        <v>666.4832052136339</v>
+        <v>773.5586207440772</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.4832052136339</v>
+        <v>552.7660416005471</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1922.46699496485</v>
+        <v>1872.090169197691</v>
       </c>
       <c r="C11" t="n">
-        <v>1553.504478024438</v>
+        <v>1503.12765225728</v>
       </c>
       <c r="D11" t="n">
-        <v>1195.238779417688</v>
+        <v>1144.861953650529</v>
       </c>
       <c r="E11" t="n">
-        <v>809.4505268194434</v>
+        <v>759.0737010522848</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194433</v>
+        <v>759.0737010522847</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934301</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656959</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479992</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464061</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.999350345375</v>
       </c>
       <c r="T11" t="n">
-        <v>3678.934522414449</v>
+        <v>3573.020743926739</v>
       </c>
       <c r="U11" t="n">
-        <v>3425.440580535977</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3425.440580535977</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.671925265863</v>
+        <v>2635.695259434583</v>
       </c>
       <c r="X11" t="n">
-        <v>2699.206167004783</v>
+        <v>2262.229501173503</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.066835028972</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046655</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929944</v>
+        <v>612.5381326449924</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>1120.49469860152</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>184.1123407281344</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547371</v>
+        <v>184.1123407281343</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600082</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620978</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>1868.62761945888</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.62761945888</v>
+        <v>1358.644593842769</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.62761945888</v>
+        <v>1103.960105636882</v>
       </c>
       <c r="W13" t="n">
-        <v>1579.210449421919</v>
+        <v>814.5429355999215</v>
       </c>
       <c r="X13" t="n">
-        <v>1351.220898523901</v>
+        <v>586.5533847019042</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512884</v>
+        <v>365.760805558374</v>
       </c>
     </row>
     <row r="14">
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910808</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5543,19 +5543,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300683</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5361496476752</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,13 +6069,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142546</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>941.1773875143808</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459584</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180515</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057158</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>301.5721730233226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761981</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
         <v>241.729756630365</v>
@@ -6622,13 +6622,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647279</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949676</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703108</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424036</v>
+        <v>526.5658826424039</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>376.4492432300682</v>
       </c>
       <c r="E40" t="n">
         <v>240.7066105458822</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,7 +7445,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851662</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851662</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5917956728306</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>398.6787020904376</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>251.7887545925273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.356899915406</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,46 +7652,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C46" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>391.2261292428727</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7994,10 +7994,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>178.9111385829676</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7061247386735</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>193.9470943467857</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>194.1841174238245</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>66.46929210247453</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.86291832287634</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>292.7933231452031</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384287</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>57.59161074007042</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>347.6073126532003</v>
+        <v>411.1616489925495</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>372.7766489231545</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.17861264449346</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>385.6468252186349</v>
       </c>
       <c r="N9" t="n">
-        <v>363.8641058239816</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>127.2703138929868</v>
+        <v>31.77413582144231</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.92668002524861</v>
+        <v>43.92668002524847</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.87305750948561</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>104.8546407028294</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.10654495412074</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>144.2159602611872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.257951202384902</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.5310997715151</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.04875628922497</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393011</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864897</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>24.63391537253423</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.725524766796</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>41.11201973523694</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823119</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864946</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>65.54986409393089</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.62417772602132</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408532</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>12.04875628922525</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922505</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>90.39760398172393</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823155</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>121.586274966451</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>995094.9194205583</v>
+        <v>995094.919420558</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1095747.349231631</v>
+        <v>1095747.349231632</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097583</v>
+        <v>293035.6977097584</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760023</v>
@@ -26344,16 +26344,16 @@
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760022</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426432</v>
+        <v>144261.3327426442</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318969</v>
+        <v>446448.3338318955</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704295</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951776</v>
+        <v>77367.70679951765</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.5741320238</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160336.9200875362</v>
+        <v>160336.920087536</v>
       </c>
       <c r="E4" t="n">
-        <v>6792.005937060821</v>
+        <v>6792.00593706082</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707365</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707376</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707378</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707354</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707373</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707397</v>
+        <v>6897.424496707417</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804752</v>
+        <v>90290.24696804755</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-740740.5960243661</v>
       </c>
       <c r="C6" t="n">
-        <v>51906.81768661899</v>
+        <v>51906.81768661896</v>
       </c>
       <c r="D6" t="n">
-        <v>-66471.79185251347</v>
+        <v>-66471.79185251455</v>
       </c>
       <c r="E6" t="n">
-        <v>-245342.1271265851</v>
+        <v>-245563.2584405583</v>
       </c>
       <c r="F6" t="n">
-        <v>25530.41678495904</v>
+        <v>25495.67885952274</v>
       </c>
       <c r="G6" t="n">
-        <v>214838.685555388</v>
+        <v>214803.9476299521</v>
       </c>
       <c r="H6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299521</v>
       </c>
       <c r="I6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="J6" t="n">
-        <v>42477.6931551071</v>
+        <v>42442.95522967141</v>
       </c>
       <c r="K6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="L6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="M6" t="n">
-        <v>137470.9787558703</v>
+        <v>137436.2408304345</v>
       </c>
       <c r="N6" t="n">
-        <v>164999.111423364</v>
+        <v>164964.3734979283</v>
       </c>
       <c r="O6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299521</v>
       </c>
       <c r="P6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299523</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936579</v>
+        <v>761.924225593659</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555928</v>
+        <v>168.4481252555939</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212925</v>
+        <v>440.317011621291</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267238</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.4593297038483</v>
+        <v>310.4593297038476</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038481</v>
+        <v>310.4593297038476</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038483</v>
+        <v>310.4593297038476</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>109.0976790638804</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>153.0641665252838</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>213.0707534554104</v>
       </c>
       <c r="W4" t="n">
-        <v>58.71378206390418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>259.9090466438506</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>8.653726874227075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>139.9624159113954</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>69.95348303262645</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>212.4606451134613</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580343</v>
+        <v>61.12658387068853</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824711</v>
+        <v>92.38912089824694</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979419</v>
+        <v>139.2216844979418</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.6170176401751</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>150.0114037757904</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>114.1316988901464</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987067</v>
+        <v>115.5150762987066</v>
       </c>
       <c r="S10" t="n">
-        <v>200.0721924556109</v>
+        <v>154.3058436765609</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>73.93864523485021</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.415399411803563e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185557</v>
+        <v>3.063011962185561</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773284</v>
+        <v>31.36907125773289</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0867686721588</v>
+        <v>118.086768672159</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255466</v>
+        <v>259.969311525547</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848614</v>
+        <v>389.6266078848619</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225977</v>
+        <v>483.3662602225984</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051151</v>
+        <v>537.8380992051159</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426748</v>
+        <v>546.5408819426757</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436922</v>
+        <v>516.083056743693</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272362</v>
+        <v>440.4649489272368</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314658</v>
+        <v>330.7708330314663</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696387</v>
+        <v>192.406925169639</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830345</v>
+        <v>69.79838508830355</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446728</v>
+        <v>13.4083348644673</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748445</v>
+        <v>0.2450409569748449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465604</v>
+        <v>1.638855881465606</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204939</v>
+        <v>15.82789759204941</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028505</v>
+        <v>56.42552048028513</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765376</v>
+        <v>154.8359409765378</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347331</v>
+        <v>264.6392850347335</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454154</v>
+        <v>355.840177245416</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485435</v>
+        <v>415.2487029485441</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045125</v>
+        <v>426.2391005045131</v>
       </c>
       <c r="O9" t="n">
-        <v>389.925504394143</v>
+        <v>389.9255043941436</v>
       </c>
       <c r="P9" t="n">
-        <v>312.9495937160064</v>
+        <v>312.9495937160069</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762059</v>
+        <v>209.1985156762062</v>
       </c>
       <c r="R9" t="n">
-        <v>101.7528239387153</v>
+        <v>101.7528239387155</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178433</v>
+        <v>30.44102920178437</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609164</v>
+        <v>6.605739276609174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.107819465885895</v>
+        <v>0.1078194658858952</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283645</v>
+        <v>1.373961718283647</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164915</v>
+        <v>12.21576873164916</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31877603711182</v>
+        <v>41.31877603711187</v>
       </c>
       <c r="J10" t="n">
-        <v>97.13909348265371</v>
+        <v>97.13909348265385</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424089</v>
+        <v>159.6293705424092</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255521</v>
+        <v>204.2706358255525</v>
       </c>
       <c r="M10" t="n">
-        <v>215.374744621499</v>
+        <v>215.3747446214993</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806238</v>
+        <v>210.2536145806241</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988557</v>
+        <v>194.2032435988559</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458692</v>
+        <v>166.1744245458694</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646423</v>
+        <v>115.0505580646425</v>
       </c>
       <c r="R10" t="n">
-        <v>61.7783150784628</v>
+        <v>61.77831507846289</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136133</v>
+        <v>23.94440558136137</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393756</v>
+        <v>5.870563705393764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07494336645183527</v>
+        <v>0.07494336645183539</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639238</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203916</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975126</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544655</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954559</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180167</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956803</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620358</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469209</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>417.574675759838</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206105</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821478</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340504</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924473</v>
+        <v>489.9737736272109</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383445</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798454</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770063</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531028</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493064</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811709</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493539</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377483</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,22 +32081,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>704.1404939038099</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>338.9915131655318</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8027404478649</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34220,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>753.6188077738268</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34702,7 +34702,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>531.9621452441386</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
@@ -34714,10 +34714,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>290.7639923703682</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3218803100816</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269929</v>
+        <v>355.070642497049</v>
       </c>
       <c r="P3" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>382.7693829040342</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
@@ -34951,7 +34951,7 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>178.3221458898751</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>147.4786738942844</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>474.1037639074302</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451607</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.92340699886034</v>
+        <v>136.5150177389312</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6821694110455</v>
+        <v>169.5367568398814</v>
       </c>
       <c r="L8" t="n">
-        <v>595.2071579058107</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M8" t="n">
-        <v>307.4918659778424</v>
+        <v>307.4918659778432</v>
       </c>
       <c r="N8" t="n">
-        <v>317.1278183460839</v>
+        <v>317.1278183460848</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9848453220054</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2319531719666</v>
+        <v>209.2319531719673</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.780133816921</v>
+        <v>108.4651431570168</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.53780722848927</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.99831430987092</v>
+        <v>154.08934965028</v>
       </c>
       <c r="K9" t="n">
-        <v>391.2630830729527</v>
+        <v>391.2630830729531</v>
       </c>
       <c r="L9" t="n">
-        <v>588.1261427690004</v>
+        <v>217.2857974655418</v>
       </c>
       <c r="M9" t="n">
-        <v>273.1146690265252</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451607</v>
+        <v>294.8973884211798</v>
       </c>
       <c r="O9" t="n">
-        <v>374.5995738426854</v>
+        <v>279.1033957711414</v>
       </c>
       <c r="P9" t="n">
-        <v>178.9751863016762</v>
+        <v>497.4379549416138</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.21674159018434</v>
+        <v>69.21674159018465</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.779913365980931</v>
+        <v>3.779913365981074</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165261</v>
+        <v>137.3598787165263</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858683</v>
+        <v>231.8606610858686</v>
       </c>
       <c r="M10" t="n">
-        <v>254.9586215833396</v>
+        <v>254.9586215833399</v>
       </c>
       <c r="N10" t="n">
-        <v>254.3857869598524</v>
+        <v>254.3857869598527</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128953</v>
+        <v>218.7883715128956</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107626</v>
+        <v>163.4529838107629</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294795</v>
+        <v>28.88851481294812</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937053</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.702485752532</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844783</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681832</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739936</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067662</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553074</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073628</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507171</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480029</v>
+        <v>347.3775291827665</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186276</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388469</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141999</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776311</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>572.7987818204766</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>81.10138438501835</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.0097390795103</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>310.2064960034205</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>622.2770956904935</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204029</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
